--- a/src/main/resources/excelTemplate/item_order_sheet_template.xlsx
+++ b/src/main/resources/excelTemplate/item_order_sheet_template.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet!$A$1:$K$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>NO</t>
   </si>
@@ -35,18 +38,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>${data.UNIT_SURFACE_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_PROCESS_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_ETC_AMT}</t>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}</t>
-  </si>
-  <si>
     <t>형태</t>
   </si>
   <si>
@@ -83,16 +74,43 @@
     <t>${data.ORDER_NOTE}</t>
   </si>
   <si>
-    <t>${data.INSPECT_NOTE}</t>
-  </si>
-  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
-    <t>${data.status}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${data}" var="data" varStatus="status"&gt;</t>
+    <t>${data.MATERIAL_TYPE_NM}</t>
+  </si>
+  <si>
+    <t>${data.CONTROL_NUM}</t>
+  </si>
+  <si>
+    <t>${data.HOPE_DUE_DT}</t>
+  </si>
+  <si>
+    <t>${data.ORDER_QTY}</t>
+  </si>
+  <si>
+    <t>${data.REQUEST_NOTE}</t>
+  </si>
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>주문일자</t>
+  </si>
+  <si>
+    <t>${data.SEQ}</t>
+  </si>
+  <si>
+    <t>${data.get('MATERIAL_ORDER_NUM')}</t>
+  </si>
+  <si>
+    <t>${data.get('ORDER_COMP_NM')}</t>
+  </si>
+  <si>
+    <t>${data.get('ORDER_DT')}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${data.get('data')}" var="data"&gt;</t>
   </si>
 </sst>
 </file>
@@ -143,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,11 +184,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,22 +222,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +529,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,41 +538,50 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7"/>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -530,18 +590,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -553,48 +613,49 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelTemplate/item_order_sheet_template.xlsx
+++ b/src/main/resources/excelTemplate/item_order_sheet_template.xlsx
@@ -231,6 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,9 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,28 +544,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
